--- a/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik oktober 2024.xlsx
+++ b/out/Frisksnit/Rigshospitalet (RH), Centralkøkken - Økologi statistik oktober 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -796,7 +796,7 @@
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
@@ -811,19 +811,10 @@
     <t>1% filler,14% containsTotalMass,14% containsSingleMass,14% containsProduct,14% containsProductNr,14% containsAmount,14% SingleMassHeader,14% TotalMassHeader,</t>
   </si>
   <si>
-    <t>2% filler,21% containsSingleMass,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>2% filler,27% containsSingleMass,13% containsProductNr,27% containsAmount,27% SingleMassHeader,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -866,7 +857,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -935,7 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -956,21 +947,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF828081"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7499D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1007,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1086,14 +1062,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1101,31 +1069,37 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="14" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="25" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="24" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4080,7 +4054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11706259-CDD1-4E6F-B857-88602EEBE2CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26616E0F-494B-4E3E-BF7F-568B2F94F12B}">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
@@ -4507,9 +4481,6 @@
       <c r="G18" s="34">
         <v>1437.8</v>
       </c>
-      <c r="H18" s="45" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="31" t="s">
@@ -4534,9 +4505,6 @@
       <c r="G19" s="34">
         <v>1768.14</v>
       </c>
-      <c r="H19" s="47" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="31" t="s">
@@ -4561,9 +4529,6 @@
       <c r="G20" s="30">
         <v>0</v>
       </c>
-      <c r="H20" s="52" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="31" t="s">
@@ -6012,7 +5977,7 @@
       <c r="B81" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="38" t="s">
         <v>177</v>
       </c>
       <c r="D81" s="28">
@@ -6036,7 +6001,7 @@
       <c r="B82" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="38" t="s">
         <v>179</v>
       </c>
       <c r="D82" s="28">
@@ -6060,7 +6025,7 @@
       <c r="B83" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="46" t="s">
+      <c r="C83" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D83" s="28">
@@ -6084,7 +6049,7 @@
       <c r="B84" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="46" t="s">
+      <c r="C84" s="36" t="s">
         <v>183</v>
       </c>
       <c r="D84" s="28">
@@ -6249,7 +6214,7 @@
       <c r="A91" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="48">
+      <c r="B91" s="44">
         <v>3040</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -6257,11 +6222,11 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="49">
+      <c r="F91" s="45">
         <f>SUM(F7:F90)</f>
         <v>2108</v>
       </c>
-      <c r="G91" s="50">
+      <c r="G91" s="46">
         <f>SUM(G7:G90)</f>
         <v>96159.03</v>
       </c>
@@ -6639,7 +6604,7 @@
       <c r="B108" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C108" s="51" t="s">
+      <c r="C108" s="40" t="s">
         <v>232</v>
       </c>
       <c r="D108" s="28">
@@ -6708,7 +6673,7 @@
       <c r="A111" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B111" s="48">
+      <c r="B111" s="44">
         <v>3040</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -6716,11 +6681,11 @@
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="49">
+      <c r="F111" s="45">
         <f>SUM(F94:F110)</f>
         <v>1488</v>
       </c>
-      <c r="G111" s="50">
+      <c r="G111" s="46">
         <f>SUM(G94:G110)</f>
         <v>49313.380000000005</v>
       </c>
@@ -6729,11 +6694,11 @@
       <c r="A113" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F113" s="53">
+      <c r="F113" s="47">
         <f>+F91+F111</f>
         <v>3596</v>
       </c>
-      <c r="G113" s="54">
+      <c r="G113" s="48">
         <f>+G91+G111</f>
         <v>145472.41</v>
       </c>
@@ -6742,11 +6707,11 @@
       <c r="A114" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F114" s="55">
+      <c r="F114" s="49">
         <f>+F111/F113</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="G114" s="55">
+      <c r="G114" s="49">
         <f>+G111/G113</f>
         <v>0.33898785343557586</v>
       </c>
@@ -6758,7 +6723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4FB418-16F5-4172-901B-B574275318AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663A496D-11B4-405A-BFA9-22EFAAEB973B}">
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
@@ -6828,20 +6793,20 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>260</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>263</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -6851,19 +6816,19 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="62">
-        <v>5</v>
-      </c>
-      <c r="F7" s="63">
+      <c r="E7" s="58">
+        <v>5</v>
+      </c>
+      <c r="F7" s="60">
         <f>+D7*E7</f>
         <v>5</v>
       </c>
@@ -6875,19 +6840,19 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="58">
         <v>4</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="60">
         <f ref="F8:F71" t="shared" si="0">+D8*E8</f>
         <v>20</v>
       </c>
@@ -6899,19 +6864,19 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="58">
         <v>10</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -6923,19 +6888,19 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="58">
         <v>6</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="60">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -6947,19 +6912,19 @@
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="55" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="58">
         <v>31</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="60">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -6971,19 +6936,19 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="58">
         <v>17</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="60">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -6995,19 +6960,19 @@
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="55" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="58">
         <v>2</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="60">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7019,19 +6984,19 @@
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="58">
         <v>2</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7043,19 +7008,19 @@
       <c r="A15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="58">
         <v>29</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="60">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -7067,19 +7032,19 @@
       <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="58">
         <v>4</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="60">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7091,19 +7056,19 @@
       <c r="A17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="58">
         <v>23</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="60">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -7115,19 +7080,19 @@
       <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="55" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="62">
-        <v>5</v>
-      </c>
-      <c r="F18" s="63">
+      <c r="E18" s="58">
+        <v>5</v>
+      </c>
+      <c r="F18" s="60">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7139,19 +7104,19 @@
       <c r="A19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="55" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="58">
         <v>33</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="60">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -7163,19 +7128,19 @@
       <c r="A20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="62">
+      <c r="E20" s="58">
         <v>2</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7187,19 +7152,19 @@
       <c r="A21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="58">
         <v>2</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="60">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7211,19 +7176,19 @@
       <c r="A22" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="55" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="62">
-        <v>1</v>
-      </c>
-      <c r="F22" s="63">
+      <c r="E22" s="58">
+        <v>1</v>
+      </c>
+      <c r="F22" s="60">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7235,19 +7200,19 @@
       <c r="A23" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="55" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="62">
-        <v>1</v>
-      </c>
-      <c r="F23" s="63">
+      <c r="E23" s="58">
+        <v>1</v>
+      </c>
+      <c r="F23" s="60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7259,19 +7224,19 @@
       <c r="A24" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="58">
         <v>4</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7283,19 +7248,19 @@
       <c r="A25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="55" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="58">
         <v>4</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="60">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7307,19 +7272,19 @@
       <c r="A26" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="55" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="58">
         <v>14</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="60">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -7331,19 +7296,19 @@
       <c r="A27" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="55" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="58">
         <v>14</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="60">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -7355,19 +7320,19 @@
       <c r="A28" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="55" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="58">
         <v>9</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F28" s="60">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -7379,19 +7344,19 @@
       <c r="A29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="55" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="58">
         <v>18</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="60">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -7403,19 +7368,19 @@
       <c r="A30" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="55" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E30" s="58">
         <v>3</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="60">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7427,19 +7392,19 @@
       <c r="A31" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="55" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="58">
         <v>3</v>
       </c>
-      <c r="F31" s="63">
+      <c r="F31" s="60">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7451,19 +7416,19 @@
       <c r="A32" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="55" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="58">
         <v>4</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="60">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7475,19 +7440,19 @@
       <c r="A33" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="55" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="58">
         <v>35</v>
       </c>
-      <c r="F33" s="63">
+      <c r="F33" s="60">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -7499,19 +7464,19 @@
       <c r="A34" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="58">
         <v>3</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="60">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7523,19 +7488,19 @@
       <c r="A35" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="55" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="62">
-        <v>5</v>
-      </c>
-      <c r="F35" s="63">
+      <c r="E35" s="58">
+        <v>5</v>
+      </c>
+      <c r="F35" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7547,19 +7512,19 @@
       <c r="A36" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="55" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="58">
         <v>3</v>
       </c>
-      <c r="F36" s="63">
+      <c r="F36" s="60">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -7571,19 +7536,19 @@
       <c r="A37" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="55" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="58">
         <v>8</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="60">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -7595,19 +7560,19 @@
       <c r="A38" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="55" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="58">
         <v>11</v>
       </c>
-      <c r="F38" s="63">
+      <c r="F38" s="60">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -7619,19 +7584,19 @@
       <c r="A39" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="55" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="58">
         <v>2</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7643,19 +7608,19 @@
       <c r="A40" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="55" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="58">
         <v>7</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="60">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -7667,19 +7632,19 @@
       <c r="A41" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="55" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
       </c>
-      <c r="E41" s="62">
+      <c r="E41" s="58">
         <v>9</v>
       </c>
-      <c r="F41" s="63">
+      <c r="F41" s="60">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -7691,19 +7656,19 @@
       <c r="A42" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="55" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="58">
         <v>20</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F42" s="60">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7715,19 +7680,19 @@
       <c r="A43" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="1">
         <v>5</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="58">
         <v>2</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7739,19 +7704,19 @@
       <c r="A44" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="55" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="58">
         <v>66</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="60">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -7763,19 +7728,19 @@
       <c r="A45" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
       </c>
-      <c r="E45" s="62">
+      <c r="E45" s="58">
         <v>2</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7787,19 +7752,19 @@
       <c r="A46" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="62">
+      <c r="E46" s="58">
         <v>19</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="60">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -7811,19 +7776,19 @@
       <c r="A47" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="55" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="1">
         <v>5</v>
       </c>
-      <c r="E47" s="62">
+      <c r="E47" s="58">
         <v>4</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="60">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7835,19 +7800,19 @@
       <c r="A48" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="55" t="s">
         <v>104</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="E48" s="62">
+      <c r="E48" s="58">
         <v>4</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7859,19 +7824,19 @@
       <c r="A49" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="55" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="E49" s="62">
+      <c r="E49" s="58">
         <v>2</v>
       </c>
-      <c r="F49" s="63">
+      <c r="F49" s="60">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -7883,19 +7848,19 @@
       <c r="A50" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="55" t="s">
         <v>109</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="62">
+      <c r="E50" s="58">
         <v>9</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="60">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -7907,19 +7872,19 @@
       <c r="A51" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="55" t="s">
         <v>111</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
       </c>
-      <c r="E51" s="62">
-        <v>1</v>
-      </c>
-      <c r="F51" s="63">
+      <c r="E51" s="58">
+        <v>1</v>
+      </c>
+      <c r="F51" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7931,19 +7896,19 @@
       <c r="A52" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="55" t="s">
         <v>113</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="62">
+      <c r="E52" s="58">
         <v>52</v>
       </c>
-      <c r="F52" s="63">
+      <c r="F52" s="60">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -7955,19 +7920,19 @@
       <c r="A53" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="55" t="s">
         <v>115</v>
       </c>
       <c r="D53" s="1">
         <v>5</v>
       </c>
-      <c r="E53" s="62">
+      <c r="E53" s="58">
         <v>2</v>
       </c>
-      <c r="F53" s="63">
+      <c r="F53" s="60">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -7979,19 +7944,19 @@
       <c r="A54" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="55" t="s">
         <v>117</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
-      <c r="E54" s="62">
+      <c r="E54" s="58">
         <v>31</v>
       </c>
-      <c r="F54" s="63">
+      <c r="F54" s="60">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -8003,19 +7968,19 @@
       <c r="A55" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="55" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="E55" s="62">
+      <c r="E55" s="58">
         <v>43</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F55" s="60">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -8027,19 +7992,19 @@
       <c r="A56" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="55" t="s">
         <v>122</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="62">
+      <c r="E56" s="58">
         <v>32</v>
       </c>
-      <c r="F56" s="63">
+      <c r="F56" s="60">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -8051,19 +8016,19 @@
       <c r="A57" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="55" t="s">
         <v>124</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="62">
+      <c r="E57" s="58">
         <v>11</v>
       </c>
-      <c r="F57" s="63">
+      <c r="F57" s="60">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -8075,19 +8040,19 @@
       <c r="A58" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="58">
         <v>9</v>
       </c>
-      <c r="F58" s="63">
+      <c r="F58" s="60">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -8099,19 +8064,19 @@
       <c r="A59" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="62">
+      <c r="E59" s="58">
         <v>40</v>
       </c>
-      <c r="F59" s="63">
+      <c r="F59" s="60">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -8123,19 +8088,19 @@
       <c r="A60" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="55" t="s">
         <v>130</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
       </c>
-      <c r="E60" s="62">
+      <c r="E60" s="58">
         <v>14</v>
       </c>
-      <c r="F60" s="63">
+      <c r="F60" s="60">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -8147,19 +8112,19 @@
       <c r="A61" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="55" t="s">
         <v>132</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
-      <c r="E61" s="62">
+      <c r="E61" s="58">
         <v>4</v>
       </c>
-      <c r="F61" s="63">
+      <c r="F61" s="60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8171,19 +8136,19 @@
       <c r="A62" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="55" t="s">
         <v>134</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="58">
         <v>10</v>
       </c>
-      <c r="F62" s="63">
+      <c r="F62" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -8195,19 +8160,19 @@
       <c r="A63" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
-      <c r="E63" s="62">
+      <c r="E63" s="58">
         <v>6</v>
       </c>
-      <c r="F63" s="63">
+      <c r="F63" s="60">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8219,19 +8184,19 @@
       <c r="A64" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="E64" s="62">
+      <c r="E64" s="58">
         <v>39</v>
       </c>
-      <c r="F64" s="63">
+      <c r="F64" s="60">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -8243,19 +8208,19 @@
       <c r="A65" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="E65" s="62">
+      <c r="E65" s="58">
         <v>8</v>
       </c>
-      <c r="F65" s="63">
+      <c r="F65" s="60">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -8267,19 +8232,19 @@
       <c r="A66" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
       </c>
-      <c r="E66" s="62">
+      <c r="E66" s="58">
         <v>3</v>
       </c>
-      <c r="F66" s="63">
+      <c r="F66" s="60">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8291,19 +8256,19 @@
       <c r="A67" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="55" t="s">
         <v>145</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
-      <c r="E67" s="62">
+      <c r="E67" s="58">
         <v>2</v>
       </c>
-      <c r="F67" s="63">
+      <c r="F67" s="60">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8315,19 +8280,19 @@
       <c r="A68" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="55" t="s">
         <v>147</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="62">
+      <c r="E68" s="58">
         <v>4</v>
       </c>
-      <c r="F68" s="63">
+      <c r="F68" s="60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8339,19 +8304,19 @@
       <c r="A69" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="E69" s="62">
+      <c r="E69" s="58">
         <v>8</v>
       </c>
-      <c r="F69" s="63">
+      <c r="F69" s="60">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -8363,19 +8328,19 @@
       <c r="A70" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="55" t="s">
         <v>151</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
       </c>
-      <c r="E70" s="62">
+      <c r="E70" s="58">
         <v>3</v>
       </c>
-      <c r="F70" s="63">
+      <c r="F70" s="60">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8387,19 +8352,19 @@
       <c r="A71" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="55" t="s">
         <v>153</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
-      <c r="E71" s="62">
+      <c r="E71" s="58">
         <v>9</v>
       </c>
-      <c r="F71" s="63">
+      <c r="F71" s="60">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -8411,19 +8376,19 @@
       <c r="A72" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="55" t="s">
         <v>156</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="62">
+      <c r="E72" s="58">
         <v>71</v>
       </c>
-      <c r="F72" s="63">
+      <c r="F72" s="60">
         <f ref="F72:F90" t="shared" si="1">+D72*E72</f>
         <v>71</v>
       </c>
@@ -8435,19 +8400,19 @@
       <c r="A73" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="55" t="s">
         <v>158</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
       </c>
-      <c r="E73" s="62">
-        <v>5</v>
-      </c>
-      <c r="F73" s="63">
+      <c r="E73" s="58">
+        <v>5</v>
+      </c>
+      <c r="F73" s="60">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -8459,19 +8424,19 @@
       <c r="A74" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="60" t="s">
+      <c r="C74" s="55" t="s">
         <v>161</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
       </c>
-      <c r="E74" s="62">
+      <c r="E74" s="58">
         <v>3</v>
       </c>
-      <c r="F74" s="63">
+      <c r="F74" s="60">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8483,19 +8448,19 @@
       <c r="A75" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="55" t="s">
         <v>163</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="58">
         <v>4</v>
       </c>
-      <c r="F75" s="63">
+      <c r="F75" s="60">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -8507,19 +8472,19 @@
       <c r="A76" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="60" t="s">
+      <c r="C76" s="55" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
       </c>
-      <c r="E76" s="62">
+      <c r="E76" s="58">
         <v>41</v>
       </c>
-      <c r="F76" s="63">
+      <c r="F76" s="60">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
@@ -8531,19 +8496,19 @@
       <c r="A77" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="55" t="s">
         <v>167</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
       </c>
-      <c r="E77" s="62">
+      <c r="E77" s="58">
         <v>11</v>
       </c>
-      <c r="F77" s="63">
+      <c r="F77" s="60">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -8555,19 +8520,19 @@
       <c r="A78" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="60" t="s">
+      <c r="C78" s="55" t="s">
         <v>169</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
       </c>
-      <c r="E78" s="62">
+      <c r="E78" s="58">
         <v>4</v>
       </c>
-      <c r="F78" s="63">
+      <c r="F78" s="60">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8579,19 +8544,19 @@
       <c r="A79" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="55" t="s">
         <v>172</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
       </c>
-      <c r="E79" s="62">
+      <c r="E79" s="58">
         <v>10</v>
       </c>
-      <c r="F79" s="63">
+      <c r="F79" s="60">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -8603,19 +8568,19 @@
       <c r="A80" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="60" t="s">
+      <c r="C80" s="55" t="s">
         <v>174</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
       </c>
-      <c r="E80" s="62">
+      <c r="E80" s="58">
         <v>49</v>
       </c>
-      <c r="F80" s="63">
+      <c r="F80" s="60">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
@@ -8627,19 +8592,19 @@
       <c r="A81" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="55" t="s">
         <v>177</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="58">
         <v>17</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="60">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -8651,19 +8616,19 @@
       <c r="A82" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="55" t="s">
         <v>179</v>
       </c>
       <c r="D82" s="1">
         <v>5</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="58">
         <v>13</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="60">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -8675,19 +8640,19 @@
       <c r="A83" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="55" t="s">
         <v>181</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="58">
         <v>22</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="60">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -8699,19 +8664,19 @@
       <c r="A84" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="55" t="s">
         <v>183</v>
       </c>
       <c r="D84" s="1">
         <v>5</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="58">
         <v>14</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="60">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -8723,19 +8688,19 @@
       <c r="A85" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="55" t="s">
         <v>186</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
       </c>
-      <c r="E85" s="5">
-        <v>5</v>
-      </c>
-      <c r="F85" s="5">
+      <c r="E85" s="58">
+        <v>5</v>
+      </c>
+      <c r="F85" s="60">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8747,19 +8712,19 @@
       <c r="A86" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="55" t="s">
         <v>188</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="58">
         <v>15</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="60">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -8771,19 +8736,19 @@
       <c r="A87" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="55" t="s">
         <v>190</v>
       </c>
       <c r="D87" s="1">
         <v>5</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="58">
         <v>20</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="60">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -8795,19 +8760,19 @@
       <c r="A88" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="55" t="s">
         <v>193</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="58">
         <v>2</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="60">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8819,19 +8784,19 @@
       <c r="A89" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="55" t="s">
         <v>196</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="58">
         <v>27</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="60">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -8843,19 +8808,19 @@
       <c r="A90" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="55" t="s">
         <v>198</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="58">
         <v>13</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="60">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -8867,15 +8832,15 @@
       <c r="A91" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="53">
         <v>3040</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="56" t="s">
         <v>200</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="6">
+      <c r="E91" s="59"/>
+      <c r="F91" s="61">
         <f>SUM(F7:F90)</f>
         <v>2108</v>
       </c>
@@ -8895,20 +8860,20 @@
       <c r="A93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="F93" s="57" t="s">
         <v>260</v>
-      </c>
-      <c r="C93" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="D93" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="F93" s="61" t="s">
-        <v>263</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>10</v>
@@ -8918,19 +8883,19 @@
       <c r="A94" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B94" s="58" t="s">
+      <c r="B94" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="55" t="s">
         <v>203</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
       </c>
-      <c r="E94" s="62">
+      <c r="E94" s="58">
         <v>118</v>
       </c>
-      <c r="F94" s="63">
+      <c r="F94" s="60">
         <f ref="F94:F110" t="shared" si="2">+D94*E94</f>
         <v>118</v>
       </c>
@@ -8942,19 +8907,19 @@
       <c r="A95" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C95" s="55" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="1">
         <v>5</v>
       </c>
-      <c r="E95" s="62">
+      <c r="E95" s="58">
         <v>26</v>
       </c>
-      <c r="F95" s="63">
+      <c r="F95" s="60">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
@@ -8966,19 +8931,19 @@
       <c r="A96" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C96" s="60" t="s">
+      <c r="C96" s="55" t="s">
         <v>207</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
       </c>
-      <c r="E96" s="62">
-        <v>1</v>
-      </c>
-      <c r="F96" s="63">
+      <c r="E96" s="58">
+        <v>1</v>
+      </c>
+      <c r="F96" s="60">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -8990,19 +8955,19 @@
       <c r="A97" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="58" t="s">
+      <c r="B97" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="55" t="s">
         <v>209</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
-      <c r="E97" s="62">
+      <c r="E97" s="58">
         <v>180</v>
       </c>
-      <c r="F97" s="63">
+      <c r="F97" s="60">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
@@ -9014,19 +8979,19 @@
       <c r="A98" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="C98" s="60" t="s">
+      <c r="C98" s="55" t="s">
         <v>211</v>
       </c>
       <c r="D98" s="1">
         <v>5</v>
       </c>
-      <c r="E98" s="62">
+      <c r="E98" s="58">
         <v>137</v>
       </c>
-      <c r="F98" s="63">
+      <c r="F98" s="60">
         <f t="shared" si="2"/>
         <v>685</v>
       </c>
@@ -9038,19 +9003,19 @@
       <c r="A99" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="55" t="s">
         <v>213</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
       </c>
-      <c r="E99" s="62">
+      <c r="E99" s="58">
         <v>6</v>
       </c>
-      <c r="F99" s="63">
+      <c r="F99" s="60">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -9062,19 +9027,19 @@
       <c r="A100" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="58" t="s">
+      <c r="B100" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="C100" s="60" t="s">
+      <c r="C100" s="55" t="s">
         <v>215</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
       </c>
-      <c r="E100" s="62">
-        <v>5</v>
-      </c>
-      <c r="F100" s="63">
+      <c r="E100" s="58">
+        <v>5</v>
+      </c>
+      <c r="F100" s="60">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -9086,19 +9051,19 @@
       <c r="A101" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="55" t="s">
         <v>217</v>
       </c>
       <c r="D101" s="1">
         <v>5</v>
       </c>
-      <c r="E101" s="62">
+      <c r="E101" s="58">
         <v>9</v>
       </c>
-      <c r="F101" s="63">
+      <c r="F101" s="60">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -9110,19 +9075,19 @@
       <c r="A102" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="58" t="s">
+      <c r="B102" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="C102" s="60" t="s">
+      <c r="C102" s="55" t="s">
         <v>219</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
       </c>
-      <c r="E102" s="62">
+      <c r="E102" s="58">
         <v>24</v>
       </c>
-      <c r="F102" s="63">
+      <c r="F102" s="60">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -9134,19 +9099,19 @@
       <c r="A103" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="55" t="s">
         <v>221</v>
       </c>
       <c r="D103" s="1">
         <v>5</v>
       </c>
-      <c r="E103" s="62">
-        <v>1</v>
-      </c>
-      <c r="F103" s="63">
+      <c r="E103" s="58">
+        <v>1</v>
+      </c>
+      <c r="F103" s="60">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -9158,19 +9123,19 @@
       <c r="A104" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="58" t="s">
+      <c r="B104" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C104" s="60" t="s">
+      <c r="C104" s="55" t="s">
         <v>223</v>
       </c>
       <c r="D104" s="1">
         <v>5</v>
       </c>
-      <c r="E104" s="62">
+      <c r="E104" s="58">
         <v>4</v>
       </c>
-      <c r="F104" s="63">
+      <c r="F104" s="60">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -9182,19 +9147,19 @@
       <c r="A105" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="55" t="s">
         <v>225</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
       </c>
-      <c r="E105" s="62">
+      <c r="E105" s="58">
         <v>11</v>
       </c>
-      <c r="F105" s="63">
+      <c r="F105" s="60">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -9206,19 +9171,19 @@
       <c r="A106" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B106" s="58" t="s">
+      <c r="B106" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="C106" s="60" t="s">
+      <c r="C106" s="55" t="s">
         <v>227</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
       </c>
-      <c r="E106" s="62">
+      <c r="E106" s="58">
         <v>22</v>
       </c>
-      <c r="F106" s="63">
+      <c r="F106" s="60">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
@@ -9230,19 +9195,19 @@
       <c r="A107" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="60" t="s">
+      <c r="C107" s="55" t="s">
         <v>229</v>
       </c>
       <c r="D107" s="1">
         <v>5</v>
       </c>
-      <c r="E107" s="62">
+      <c r="E107" s="58">
         <v>4</v>
       </c>
-      <c r="F107" s="63">
+      <c r="F107" s="60">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -9254,19 +9219,19 @@
       <c r="A108" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="55" t="s">
         <v>232</v>
       </c>
       <c r="D108" s="1">
         <v>5</v>
       </c>
-      <c r="E108" s="5">
-        <v>1</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="58">
+        <v>1</v>
+      </c>
+      <c r="F108" s="60">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -9278,19 +9243,19 @@
       <c r="A109" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="55" t="s">
         <v>235</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="58">
         <v>4</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="60">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9302,19 +9267,19 @@
       <c r="A110" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="55" t="s">
         <v>237</v>
       </c>
       <c r="D110" s="1">
         <v>5</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="58">
         <v>23</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="60">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
@@ -9326,15 +9291,15 @@
       <c r="A111" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="53">
         <v>3040</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="56" t="s">
         <v>200</v>
       </c>
       <c r="D111" s="3"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="6">
+      <c r="E111" s="59"/>
+      <c r="F111" s="61">
         <f>SUM(F94:F110)</f>
         <v>1488</v>
       </c>
